--- a/Code/Results/Cases/Case_2_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001270114029192</v>
+        <v>1.03158659211277</v>
       </c>
       <c r="D2">
-        <v>1.022900996794496</v>
+        <v>1.039944605764331</v>
       </c>
       <c r="E2">
-        <v>1.020579307932295</v>
+        <v>1.049178480035779</v>
       </c>
       <c r="F2">
-        <v>1.027391473755604</v>
+        <v>1.05359276745835</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048139240109886</v>
+        <v>1.034747391137029</v>
       </c>
       <c r="J2">
-        <v>1.023412902455174</v>
+        <v>1.03672150028258</v>
       </c>
       <c r="K2">
-        <v>1.034050243944553</v>
+        <v>1.042728354770345</v>
       </c>
       <c r="L2">
-        <v>1.031759196159902</v>
+        <v>1.051936261370192</v>
       </c>
       <c r="M2">
-        <v>1.038481948811338</v>
+        <v>1.056338309151664</v>
       </c>
       <c r="N2">
-        <v>1.024866266163762</v>
+        <v>1.0381937637266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005832893614438</v>
+        <v>1.03254069711127</v>
       </c>
       <c r="D3">
-        <v>1.026356776646494</v>
+        <v>1.040678811066486</v>
       </c>
       <c r="E3">
-        <v>1.024717979860569</v>
+        <v>1.050126938082122</v>
       </c>
       <c r="F3">
-        <v>1.031583275738517</v>
+        <v>1.054531783510816</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049399722037082</v>
+        <v>1.034919662780131</v>
       </c>
       <c r="J3">
-        <v>1.026165801264182</v>
+        <v>1.037317519060715</v>
       </c>
       <c r="K3">
-        <v>1.036663168634003</v>
+        <v>1.043273082932233</v>
       </c>
       <c r="L3">
-        <v>1.0350440641398</v>
+        <v>1.052696561341941</v>
       </c>
       <c r="M3">
-        <v>1.041827382360266</v>
+        <v>1.057090078103249</v>
       </c>
       <c r="N3">
-        <v>1.02762307440484</v>
+        <v>1.038790628919763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008722545747404</v>
+        <v>1.033158193699753</v>
       </c>
       <c r="D4">
-        <v>1.028546044116311</v>
+        <v>1.041153666245438</v>
       </c>
       <c r="E4">
-        <v>1.027349083400182</v>
+        <v>1.050741608727319</v>
       </c>
       <c r="F4">
-        <v>1.034244417405413</v>
+        <v>1.0551399192101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050182990363995</v>
+        <v>1.035029272054694</v>
       </c>
       <c r="J4">
-        <v>1.027905729396785</v>
+        <v>1.03770270644114</v>
       </c>
       <c r="K4">
-        <v>1.038311731284916</v>
+        <v>1.043624667336109</v>
       </c>
       <c r="L4">
-        <v>1.037128264728404</v>
+        <v>1.053188856267989</v>
       </c>
       <c r="M4">
-        <v>1.043946389779757</v>
+        <v>1.057576425525737</v>
       </c>
       <c r="N4">
-        <v>1.029365473434963</v>
+        <v>1.039176363310451</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009922860288495</v>
+        <v>1.033417818847297</v>
       </c>
       <c r="D5">
-        <v>1.029455534758095</v>
+        <v>1.041353240220676</v>
       </c>
       <c r="E5">
-        <v>1.028444365830635</v>
+        <v>1.051000243613344</v>
       </c>
       <c r="F5">
-        <v>1.035351308133714</v>
+        <v>1.055395704937971</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050504688764745</v>
+        <v>1.035074905334807</v>
       </c>
       <c r="J5">
-        <v>1.028627588599478</v>
+        <v>1.037864524234619</v>
       </c>
       <c r="K5">
-        <v>1.038994970364458</v>
+        <v>1.04377225904767</v>
       </c>
       <c r="L5">
-        <v>1.037994890420514</v>
+        <v>1.053395894987299</v>
       </c>
       <c r="M5">
-        <v>1.044826616706634</v>
+        <v>1.05778086154156</v>
       </c>
       <c r="N5">
-        <v>1.030088357760523</v>
+        <v>1.039338410903757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010123563344385</v>
+        <v>1.033461412763755</v>
       </c>
       <c r="D6">
-        <v>1.029607613935198</v>
+        <v>1.041386746296722</v>
       </c>
       <c r="E6">
-        <v>1.028627644365817</v>
+        <v>1.051043682844095</v>
       </c>
       <c r="F6">
-        <v>1.035536476495527</v>
+        <v>1.055438659807854</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050558262794053</v>
+        <v>1.035082541162531</v>
       </c>
       <c r="J6">
-        <v>1.02874823704502</v>
+        <v>1.037891687386065</v>
       </c>
       <c r="K6">
-        <v>1.039109121432392</v>
+        <v>1.043797027744533</v>
       </c>
       <c r="L6">
-        <v>1.038139848435934</v>
+        <v>1.053430662238091</v>
       </c>
       <c r="M6">
-        <v>1.044973798433193</v>
+        <v>1.057815185781967</v>
       </c>
       <c r="N6">
-        <v>1.030209177540697</v>
+        <v>1.039365612629993</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008738640680107</v>
+        <v>1.033161662708435</v>
       </c>
       <c r="D7">
-        <v>1.028558239077788</v>
+        <v>1.04115633318103</v>
       </c>
       <c r="E7">
-        <v>1.027363760678651</v>
+        <v>1.050745063727582</v>
       </c>
       <c r="F7">
-        <v>1.034259253776562</v>
+        <v>1.055143336540092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050187318526081</v>
+        <v>1.035029883563975</v>
       </c>
       <c r="J7">
-        <v>1.027915412275222</v>
+        <v>1.037704869111325</v>
       </c>
       <c r="K7">
-        <v>1.038320898970754</v>
+        <v>1.043626640307426</v>
       </c>
       <c r="L7">
-        <v>1.03713988182027</v>
+        <v>1.05319162242462</v>
       </c>
       <c r="M7">
-        <v>1.043958192642535</v>
+        <v>1.057579157307253</v>
       </c>
       <c r="N7">
-        <v>1.029375170064198</v>
+        <v>1.039178529051875</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002825453406449</v>
+        <v>1.031909009624928</v>
       </c>
       <c r="D8">
-        <v>1.024078804822464</v>
+        <v>1.040192779617166</v>
       </c>
       <c r="E8">
-        <v>1.021987943916437</v>
+        <v>1.04949881741044</v>
       </c>
       <c r="F8">
-        <v>1.028818976145802</v>
+        <v>1.053910001914703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04857202067663</v>
+        <v>1.03480599626939</v>
       </c>
       <c r="J8">
-        <v>1.024352011540528</v>
+        <v>1.036923025781549</v>
       </c>
       <c r="K8">
-        <v>1.034942199757217</v>
+        <v>1.042912632102027</v>
       </c>
       <c r="L8">
-        <v>1.032878088951791</v>
+        <v>1.052193139332416</v>
       </c>
       <c r="M8">
-        <v>1.039622228661141</v>
+        <v>1.056592392467593</v>
       </c>
       <c r="N8">
-        <v>1.025806708891734</v>
+        <v>1.038395575414893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9918995141994676</v>
+        <v>1.029702680796853</v>
       </c>
       <c r="D9">
-        <v>1.015810482853574</v>
+        <v>1.038493212451244</v>
       </c>
       <c r="E9">
-        <v>1.012137258350993</v>
+        <v>1.047310140310284</v>
       </c>
       <c r="F9">
-        <v>1.018820514402932</v>
+        <v>1.051740820829437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045470427545055</v>
+        <v>1.034397247841781</v>
       </c>
       <c r="J9">
-        <v>1.017741600447698</v>
+        <v>1.03554170593452</v>
       </c>
       <c r="K9">
-        <v>1.028652150287881</v>
+        <v>1.041647678442359</v>
       </c>
       <c r="L9">
-        <v>1.025036439078461</v>
+        <v>1.050436259064069</v>
       </c>
       <c r="M9">
-        <v>1.031615447319333</v>
+        <v>1.054852890782191</v>
       </c>
       <c r="N9">
-        <v>1.019186910256927</v>
+        <v>1.037012293935241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9842373241835431</v>
+        <v>1.028232515488964</v>
       </c>
       <c r="D10">
-        <v>1.01002210791661</v>
+        <v>1.037359127439234</v>
       </c>
       <c r="E10">
-        <v>1.005288401728959</v>
+        <v>1.045856049028846</v>
       </c>
       <c r="F10">
-        <v>1.011848715680236</v>
+        <v>1.050297539638807</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043219892029194</v>
+        <v>1.03411522110966</v>
       </c>
       <c r="J10">
-        <v>1.013090599743558</v>
+        <v>1.034618447900607</v>
       </c>
       <c r="K10">
-        <v>1.024212737510207</v>
+        <v>1.040799877029423</v>
       </c>
       <c r="L10">
-        <v>1.019562824449711</v>
+        <v>1.049266798793141</v>
       </c>
       <c r="M10">
-        <v>1.026007283384016</v>
+        <v>1.053692820679254</v>
       </c>
       <c r="N10">
-        <v>1.014529304598309</v>
+        <v>1.036087724769021</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9808205707686337</v>
+        <v>1.02759609723092</v>
       </c>
       <c r="D11">
-        <v>1.007444352799774</v>
+        <v>1.036867825327641</v>
       </c>
       <c r="E11">
-        <v>1.002249252439689</v>
+        <v>1.045227618703731</v>
       </c>
       <c r="F11">
-        <v>1.008750179491246</v>
+        <v>1.04967327174647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042199296959968</v>
+        <v>1.033990848692951</v>
       </c>
       <c r="J11">
-        <v>1.011013591181958</v>
+        <v>1.034218113108626</v>
       </c>
       <c r="K11">
-        <v>1.022227231914505</v>
+        <v>1.04043171468871</v>
       </c>
       <c r="L11">
-        <v>1.017128875447545</v>
+        <v>1.048760847679693</v>
       </c>
       <c r="M11">
-        <v>1.023508945539695</v>
+        <v>1.053190415493861</v>
       </c>
       <c r="N11">
-        <v>1.012449346446316</v>
+        <v>1.035686821455716</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9795357135236279</v>
+        <v>1.027359729762154</v>
       </c>
       <c r="D12">
-        <v>1.006475604023658</v>
+        <v>1.036685299655391</v>
       </c>
       <c r="E12">
-        <v>1.001108711962339</v>
+        <v>1.044994373273416</v>
       </c>
       <c r="F12">
-        <v>1.00758662206973</v>
+        <v>1.049441494559167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041813024445733</v>
+        <v>1.033944313359768</v>
       </c>
       <c r="J12">
-        <v>1.010232139906685</v>
+        <v>1.034069327879855</v>
       </c>
       <c r="K12">
-        <v>1.021479784433606</v>
+        <v>1.040294804661444</v>
       </c>
       <c r="L12">
-        <v>1.01621470158236</v>
+        <v>1.04857298093429</v>
       </c>
       <c r="M12">
-        <v>1.022569903574995</v>
+        <v>1.053003787769152</v>
       </c>
       <c r="N12">
-        <v>1.011666785420599</v>
+        <v>1.035537824934854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9798120456507324</v>
+        <v>1.027410430172615</v>
       </c>
       <c r="D13">
-        <v>1.006683922293894</v>
+        <v>1.036724453559204</v>
       </c>
       <c r="E13">
-        <v>1.001353899982255</v>
+        <v>1.045044396974691</v>
       </c>
       <c r="F13">
-        <v>1.007836791227207</v>
+        <v>1.049491206840881</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041896210285588</v>
+        <v>1.033954310626814</v>
       </c>
       <c r="J13">
-        <v>1.010400222534399</v>
+        <v>1.034101246562952</v>
       </c>
       <c r="K13">
-        <v>1.02164057187076</v>
+        <v>1.040324179468541</v>
       </c>
       <c r="L13">
-        <v>1.016411260393491</v>
+        <v>1.048613275985283</v>
       </c>
       <c r="M13">
-        <v>1.022771840240756</v>
+        <v>1.053043820579318</v>
       </c>
       <c r="N13">
-        <v>1.011835106744923</v>
+        <v>1.035569788946142</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9807146899663126</v>
+        <v>1.027576558475853</v>
       </c>
       <c r="D14">
-        <v>1.007364508570598</v>
+        <v>1.03685273838903</v>
       </c>
       <c r="E14">
-        <v>1.002155216679729</v>
+        <v>1.045208334852914</v>
       </c>
       <c r="F14">
-        <v>1.00865426089173</v>
+        <v>1.049654110849518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042167515507041</v>
+        <v>1.033987008956958</v>
       </c>
       <c r="J14">
-        <v>1.010949202201458</v>
+        <v>1.034205816165221</v>
       </c>
       <c r="K14">
-        <v>1.022165653181488</v>
+        <v>1.040420400883875</v>
       </c>
       <c r="L14">
-        <v>1.017053518572631</v>
+        <v>1.048745317203308</v>
       </c>
       <c r="M14">
-        <v>1.023431552650045</v>
+        <v>1.053174989028194</v>
       </c>
       <c r="N14">
-        <v>1.012384866026078</v>
+        <v>1.035674507049241</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9812687289020118</v>
+        <v>1.027678919150696</v>
       </c>
       <c r="D15">
-        <v>1.007782332071025</v>
+        <v>1.036931774412607</v>
       </c>
       <c r="E15">
-        <v>1.002647369487545</v>
+        <v>1.04530936648543</v>
       </c>
       <c r="F15">
-        <v>1.009156238073271</v>
+        <v>1.049754495162775</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042333716591023</v>
+        <v>1.034007110722993</v>
       </c>
       <c r="J15">
-        <v>1.011286112288762</v>
+        <v>1.034270233964751</v>
       </c>
       <c r="K15">
-        <v>1.022487841790676</v>
+        <v>1.040479665145758</v>
       </c>
       <c r="L15">
-        <v>1.017447881379868</v>
+        <v>1.048826680934169</v>
       </c>
       <c r="M15">
-        <v>1.023836542582665</v>
+        <v>1.053255804670045</v>
       </c>
       <c r="N15">
-        <v>1.012722254564351</v>
+        <v>1.035739016329435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9844619261753346</v>
+        <v>1.028274756170571</v>
       </c>
       <c r="D16">
-        <v>1.010191636842137</v>
+        <v>1.037391728679579</v>
       </c>
       <c r="E16">
-        <v>1.00548849890441</v>
+        <v>1.045897781278905</v>
       </c>
       <c r="F16">
-        <v>1.012052621737199</v>
+        <v>1.050338984720973</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04328663319706</v>
+        <v>1.034123427881367</v>
       </c>
       <c r="J16">
-        <v>1.013227074557596</v>
+        <v>1.034645005111998</v>
       </c>
       <c r="K16">
-        <v>1.024343139880849</v>
+        <v>1.040824288523913</v>
       </c>
       <c r="L16">
-        <v>1.019722970245873</v>
+        <v>1.049300386307266</v>
       </c>
       <c r="M16">
-        <v>1.026171570794038</v>
+        <v>1.053726161907907</v>
       </c>
       <c r="N16">
-        <v>1.014665973222238</v>
+        <v>1.036114319694698</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9864378532855756</v>
+        <v>1.028648555748163</v>
       </c>
       <c r="D17">
-        <v>1.011683460566944</v>
+        <v>1.037680183579206</v>
       </c>
       <c r="E17">
-        <v>1.007250551857127</v>
+        <v>1.046267200644933</v>
       </c>
       <c r="F17">
-        <v>1.013847664201613</v>
+        <v>1.050705803109232</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043871858257883</v>
+        <v>1.034195787803326</v>
       </c>
       <c r="J17">
-        <v>1.01442736945282</v>
+        <v>1.034879940309147</v>
       </c>
       <c r="K17">
-        <v>1.025489691268766</v>
+        <v>1.041040178863142</v>
       </c>
       <c r="L17">
-        <v>1.021132635836361</v>
+        <v>1.049597645770194</v>
       </c>
       <c r="M17">
-        <v>1.027617173308314</v>
+        <v>1.054021181964009</v>
       </c>
       <c r="N17">
-        <v>1.015867972673889</v>
+        <v>1.036349588526774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.987580889369544</v>
+        <v>1.028866603370556</v>
       </c>
       <c r="D18">
-        <v>1.012546769946414</v>
+        <v>1.037848411606394</v>
       </c>
       <c r="E18">
-        <v>1.008271274818486</v>
+        <v>1.046482792492222</v>
       </c>
       <c r="F18">
-        <v>1.014887038219732</v>
+        <v>1.050919827830423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044208780293173</v>
+        <v>1.034237776701285</v>
       </c>
       <c r="J18">
-        <v>1.015121427536911</v>
+        <v>1.035016920147556</v>
       </c>
       <c r="K18">
-        <v>1.02615238811911</v>
+        <v>1.041166001831443</v>
       </c>
       <c r="L18">
-        <v>1.021948746476124</v>
+        <v>1.049771073888297</v>
       </c>
       <c r="M18">
-        <v>1.028453656268841</v>
+        <v>1.054193253691487</v>
       </c>
       <c r="N18">
-        <v>1.016563016400068</v>
+        <v>1.036486762892266</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9879690505666311</v>
+        <v>1.02894095478087</v>
       </c>
       <c r="D19">
-        <v>1.012839990582224</v>
+        <v>1.037905769105259</v>
       </c>
       <c r="E19">
-        <v>1.008618136705999</v>
+        <v>1.046556323343703</v>
       </c>
       <c r="F19">
-        <v>1.015240160340563</v>
+        <v>1.050992815847702</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044322917990237</v>
+        <v>1.034252056933679</v>
       </c>
       <c r="J19">
-        <v>1.015357070585503</v>
+        <v>1.03506361756898</v>
       </c>
       <c r="K19">
-        <v>1.026377334541227</v>
+        <v>1.041208886846701</v>
       </c>
       <c r="L19">
-        <v>1.022225995268369</v>
+        <v>1.049830215438209</v>
       </c>
       <c r="M19">
-        <v>1.028737752464371</v>
+        <v>1.054251924234163</v>
       </c>
       <c r="N19">
-        <v>1.016798994088818</v>
+        <v>1.036533526629385</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9862268424405348</v>
+        <v>1.028608448864074</v>
       </c>
       <c r="D20">
-        <v>1.01152411388628</v>
+        <v>1.03764923745138</v>
       </c>
       <c r="E20">
-        <v>1.007062234058736</v>
+        <v>1.046227553458838</v>
       </c>
       <c r="F20">
-        <v>1.013655868322539</v>
+        <v>1.050666440157095</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043809529112818</v>
+        <v>1.034188046752898</v>
       </c>
       <c r="J20">
-        <v>1.014299218674257</v>
+        <v>1.034854739554118</v>
       </c>
       <c r="K20">
-        <v>1.025367307832561</v>
+        <v>1.041017026438669</v>
       </c>
       <c r="L20">
-        <v>1.020982028982141</v>
+        <v>1.049565748322385</v>
       </c>
       <c r="M20">
-        <v>1.027462771906152</v>
+        <v>1.053989529973665</v>
       </c>
       <c r="N20">
-        <v>1.015739639906521</v>
+        <v>1.036324351983783</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9804493249106347</v>
+        <v>1.027527637091727</v>
       </c>
       <c r="D21">
-        <v>1.007164408083994</v>
+        <v>1.036814962638057</v>
       </c>
       <c r="E21">
-        <v>1.001919576052665</v>
+        <v>1.045160054212146</v>
       </c>
       <c r="F21">
-        <v>1.008413890349425</v>
+        <v>1.04960613680705</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042087823149038</v>
+        <v>1.033977389436019</v>
       </c>
       <c r="J21">
-        <v>1.010787820273965</v>
+        <v>1.034175025310464</v>
       </c>
       <c r="K21">
-        <v>1.022011308017584</v>
+        <v>1.040392070433422</v>
       </c>
       <c r="L21">
-        <v>1.016864672508742</v>
+        <v>1.048706432525095</v>
       </c>
       <c r="M21">
-        <v>1.023237593266696</v>
+        <v>1.053136363514223</v>
       </c>
       <c r="N21">
-        <v>1.012223254917737</v>
+        <v>1.035643672467938</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9767253329223753</v>
+        <v>1.026848242087203</v>
       </c>
       <c r="D22">
-        <v>1.004357872191931</v>
+        <v>1.036290223728967</v>
       </c>
       <c r="E22">
-        <v>0.9986183558752606</v>
+        <v>1.044489926170466</v>
       </c>
       <c r="F22">
-        <v>1.005044662182863</v>
+        <v>1.048940082586638</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040963649713676</v>
+        <v>1.033842986247278</v>
       </c>
       <c r="J22">
-        <v>1.008522189149938</v>
+        <v>1.033747181793009</v>
       </c>
       <c r="K22">
-        <v>1.019843490306174</v>
+        <v>1.03999822128297</v>
       </c>
       <c r="L22">
-        <v>1.014217233184166</v>
+        <v>1.048166529068174</v>
       </c>
       <c r="M22">
-        <v>1.020516841398284</v>
+        <v>1.052599874576435</v>
       </c>
       <c r="N22">
-        <v>1.009954406337643</v>
+        <v>1.035215221363614</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9787084604234414</v>
+        <v>1.027208387407251</v>
       </c>
       <c r="D23">
-        <v>1.005852059661043</v>
+        <v>1.036568416036386</v>
       </c>
       <c r="E23">
-        <v>1.000375041063732</v>
+        <v>1.044845073702828</v>
       </c>
       <c r="F23">
-        <v>1.006837938897135</v>
+        <v>1.049293113209149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041563634111815</v>
+        <v>1.033914420990646</v>
       </c>
       <c r="J23">
-        <v>1.009728898002573</v>
+        <v>1.033974034998489</v>
       </c>
       <c r="K23">
-        <v>1.020998324433743</v>
+        <v>1.040207094547773</v>
       </c>
       <c r="L23">
-        <v>1.015626432652167</v>
+        <v>1.048452705521222</v>
       </c>
       <c r="M23">
-        <v>1.021965439384976</v>
+        <v>1.052884283741753</v>
       </c>
       <c r="N23">
-        <v>1.01116282885526</v>
+        <v>1.035442396726667</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9863222184192789</v>
+        <v>1.028626571387131</v>
       </c>
       <c r="D24">
-        <v>1.011596136910047</v>
+        <v>1.037663220745132</v>
       </c>
       <c r="E24">
-        <v>1.007147348516216</v>
+        <v>1.046245467957982</v>
       </c>
       <c r="F24">
-        <v>1.01374255619932</v>
+        <v>1.050684226377691</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04383770664158</v>
+        <v>1.0341915452722</v>
       </c>
       <c r="J24">
-        <v>1.014357143167496</v>
+        <v>1.034866126857093</v>
       </c>
       <c r="K24">
-        <v>1.025422626356361</v>
+        <v>1.041027488338577</v>
       </c>
       <c r="L24">
-        <v>1.021050100623345</v>
+        <v>1.049580161277251</v>
       </c>
       <c r="M24">
-        <v>1.027532559958381</v>
+        <v>1.054003832171919</v>
       </c>
       <c r="N24">
-        <v>1.015797646659184</v>
+        <v>1.036335755458034</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9947878593243449</v>
+        <v>1.030272945909832</v>
       </c>
       <c r="D25">
-        <v>1.017994859473251</v>
+        <v>1.038932780308824</v>
       </c>
       <c r="E25">
-        <v>1.014731415058701</v>
+        <v>1.047875085123583</v>
       </c>
       <c r="F25">
-        <v>1.021457067001502</v>
+        <v>1.052301111108274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046303616325976</v>
+        <v>1.034504601350716</v>
       </c>
       <c r="J25">
-        <v>1.019491915054139</v>
+        <v>1.035899233060412</v>
       </c>
       <c r="K25">
-        <v>1.030320106248369</v>
+        <v>1.041975496593005</v>
       </c>
       <c r="L25">
-        <v>1.027105269356583</v>
+        <v>1.050890143204972</v>
       </c>
       <c r="M25">
-        <v>1.033731176948961</v>
+        <v>1.055302669362153</v>
       </c>
       <c r="N25">
-        <v>1.020939710510874</v>
+        <v>1.037370328790661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03158659211277</v>
+        <v>1.001270114029192</v>
       </c>
       <c r="D2">
-        <v>1.039944605764331</v>
+        <v>1.022900996794496</v>
       </c>
       <c r="E2">
-        <v>1.049178480035779</v>
+        <v>1.020579307932295</v>
       </c>
       <c r="F2">
-        <v>1.05359276745835</v>
+        <v>1.027391473755604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034747391137029</v>
+        <v>1.048139240109886</v>
       </c>
       <c r="J2">
-        <v>1.03672150028258</v>
+        <v>1.023412902455174</v>
       </c>
       <c r="K2">
-        <v>1.042728354770345</v>
+        <v>1.034050243944553</v>
       </c>
       <c r="L2">
-        <v>1.051936261370192</v>
+        <v>1.031759196159903</v>
       </c>
       <c r="M2">
-        <v>1.056338309151664</v>
+        <v>1.038481948811338</v>
       </c>
       <c r="N2">
-        <v>1.0381937637266</v>
+        <v>1.024866266163762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03254069711127</v>
+        <v>1.005832893614438</v>
       </c>
       <c r="D3">
-        <v>1.040678811066486</v>
+        <v>1.026356776646494</v>
       </c>
       <c r="E3">
-        <v>1.050126938082122</v>
+        <v>1.024717979860569</v>
       </c>
       <c r="F3">
-        <v>1.054531783510816</v>
+        <v>1.031583275738518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034919662780131</v>
+        <v>1.049399722037082</v>
       </c>
       <c r="J3">
-        <v>1.037317519060715</v>
+        <v>1.026165801264182</v>
       </c>
       <c r="K3">
-        <v>1.043273082932233</v>
+        <v>1.036663168634003</v>
       </c>
       <c r="L3">
-        <v>1.052696561341941</v>
+        <v>1.0350440641398</v>
       </c>
       <c r="M3">
-        <v>1.057090078103249</v>
+        <v>1.041827382360266</v>
       </c>
       <c r="N3">
-        <v>1.038790628919763</v>
+        <v>1.02762307440484</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033158193699753</v>
+        <v>1.008722545747404</v>
       </c>
       <c r="D4">
-        <v>1.041153666245438</v>
+        <v>1.028546044116311</v>
       </c>
       <c r="E4">
-        <v>1.050741608727319</v>
+        <v>1.027349083400181</v>
       </c>
       <c r="F4">
-        <v>1.0551399192101</v>
+        <v>1.034244417405412</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035029272054694</v>
+        <v>1.050182990363995</v>
       </c>
       <c r="J4">
-        <v>1.03770270644114</v>
+        <v>1.027905729396785</v>
       </c>
       <c r="K4">
-        <v>1.043624667336109</v>
+        <v>1.038311731284915</v>
       </c>
       <c r="L4">
-        <v>1.053188856267989</v>
+        <v>1.037128264728403</v>
       </c>
       <c r="M4">
-        <v>1.057576425525737</v>
+        <v>1.043946389779756</v>
       </c>
       <c r="N4">
-        <v>1.039176363310451</v>
+        <v>1.029365473434963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033417818847297</v>
+        <v>1.009922860288494</v>
       </c>
       <c r="D5">
-        <v>1.041353240220676</v>
+        <v>1.029455534758095</v>
       </c>
       <c r="E5">
-        <v>1.051000243613344</v>
+        <v>1.028444365830635</v>
       </c>
       <c r="F5">
-        <v>1.055395704937971</v>
+        <v>1.035351308133714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035074905334807</v>
+        <v>1.050504688764745</v>
       </c>
       <c r="J5">
-        <v>1.037864524234619</v>
+        <v>1.028627588599478</v>
       </c>
       <c r="K5">
-        <v>1.04377225904767</v>
+        <v>1.038994970364458</v>
       </c>
       <c r="L5">
-        <v>1.053395894987299</v>
+        <v>1.037994890420514</v>
       </c>
       <c r="M5">
-        <v>1.05778086154156</v>
+        <v>1.044826616706634</v>
       </c>
       <c r="N5">
-        <v>1.039338410903757</v>
+        <v>1.030088357760523</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033461412763755</v>
+        <v>1.010123563344385</v>
       </c>
       <c r="D6">
-        <v>1.041386746296722</v>
+        <v>1.029607613935198</v>
       </c>
       <c r="E6">
-        <v>1.051043682844095</v>
+        <v>1.028627644365817</v>
       </c>
       <c r="F6">
-        <v>1.055438659807854</v>
+        <v>1.035536476495526</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035082541162531</v>
+        <v>1.050558262794053</v>
       </c>
       <c r="J6">
-        <v>1.037891687386065</v>
+        <v>1.02874823704502</v>
       </c>
       <c r="K6">
-        <v>1.043797027744533</v>
+        <v>1.039109121432392</v>
       </c>
       <c r="L6">
-        <v>1.053430662238091</v>
+        <v>1.038139848435934</v>
       </c>
       <c r="M6">
-        <v>1.057815185781967</v>
+        <v>1.044973798433193</v>
       </c>
       <c r="N6">
-        <v>1.039365612629993</v>
+        <v>1.030209177540697</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033161662708435</v>
+        <v>1.008738640680108</v>
       </c>
       <c r="D7">
-        <v>1.04115633318103</v>
+        <v>1.028558239077788</v>
       </c>
       <c r="E7">
-        <v>1.050745063727582</v>
+        <v>1.027363760678651</v>
       </c>
       <c r="F7">
-        <v>1.055143336540092</v>
+        <v>1.034259253776563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035029883563975</v>
+        <v>1.050187318526081</v>
       </c>
       <c r="J7">
-        <v>1.037704869111325</v>
+        <v>1.027915412275222</v>
       </c>
       <c r="K7">
-        <v>1.043626640307426</v>
+        <v>1.038320898970755</v>
       </c>
       <c r="L7">
-        <v>1.05319162242462</v>
+        <v>1.03713988182027</v>
       </c>
       <c r="M7">
-        <v>1.057579157307253</v>
+        <v>1.043958192642536</v>
       </c>
       <c r="N7">
-        <v>1.039178529051875</v>
+        <v>1.029375170064198</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031909009624928</v>
+        <v>1.002825453406449</v>
       </c>
       <c r="D8">
-        <v>1.040192779617166</v>
+        <v>1.024078804822464</v>
       </c>
       <c r="E8">
-        <v>1.04949881741044</v>
+        <v>1.021987943916438</v>
       </c>
       <c r="F8">
-        <v>1.053910001914703</v>
+        <v>1.028818976145803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03480599626939</v>
+        <v>1.04857202067663</v>
       </c>
       <c r="J8">
-        <v>1.036923025781549</v>
+        <v>1.024352011540529</v>
       </c>
       <c r="K8">
-        <v>1.042912632102027</v>
+        <v>1.034942199757218</v>
       </c>
       <c r="L8">
-        <v>1.052193139332416</v>
+        <v>1.032878088951791</v>
       </c>
       <c r="M8">
-        <v>1.056592392467593</v>
+        <v>1.039622228661142</v>
       </c>
       <c r="N8">
-        <v>1.038395575414893</v>
+        <v>1.025806708891735</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029702680796853</v>
+        <v>0.9918995141994678</v>
       </c>
       <c r="D9">
-        <v>1.038493212451244</v>
+        <v>1.015810482853574</v>
       </c>
       <c r="E9">
-        <v>1.047310140310284</v>
+        <v>1.012137258350993</v>
       </c>
       <c r="F9">
-        <v>1.051740820829437</v>
+        <v>1.018820514402932</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034397247841781</v>
+        <v>1.045470427545055</v>
       </c>
       <c r="J9">
-        <v>1.03554170593452</v>
+        <v>1.017741600447698</v>
       </c>
       <c r="K9">
-        <v>1.041647678442359</v>
+        <v>1.028652150287881</v>
       </c>
       <c r="L9">
-        <v>1.050436259064069</v>
+        <v>1.025036439078461</v>
       </c>
       <c r="M9">
-        <v>1.054852890782191</v>
+        <v>1.031615447319333</v>
       </c>
       <c r="N9">
-        <v>1.037012293935241</v>
+        <v>1.019186910256927</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028232515488964</v>
+        <v>0.9842373241835438</v>
       </c>
       <c r="D10">
-        <v>1.037359127439234</v>
+        <v>1.010022107916611</v>
       </c>
       <c r="E10">
-        <v>1.045856049028846</v>
+        <v>1.00528840172896</v>
       </c>
       <c r="F10">
-        <v>1.050297539638807</v>
+        <v>1.011848715680237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03411522110966</v>
+        <v>1.043219892029195</v>
       </c>
       <c r="J10">
-        <v>1.034618447900607</v>
+        <v>1.013090599743558</v>
       </c>
       <c r="K10">
-        <v>1.040799877029423</v>
+        <v>1.024212737510208</v>
       </c>
       <c r="L10">
-        <v>1.049266798793141</v>
+        <v>1.019562824449712</v>
       </c>
       <c r="M10">
-        <v>1.053692820679254</v>
+        <v>1.026007283384017</v>
       </c>
       <c r="N10">
-        <v>1.036087724769021</v>
+        <v>1.01452930459831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02759609723092</v>
+        <v>0.9808205707686334</v>
       </c>
       <c r="D11">
-        <v>1.036867825327641</v>
+        <v>1.007444352799774</v>
       </c>
       <c r="E11">
-        <v>1.045227618703731</v>
+        <v>1.002249252439689</v>
       </c>
       <c r="F11">
-        <v>1.04967327174647</v>
+        <v>1.008750179491245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033990848692951</v>
+        <v>1.042199296959968</v>
       </c>
       <c r="J11">
-        <v>1.034218113108626</v>
+        <v>1.011013591181958</v>
       </c>
       <c r="K11">
-        <v>1.04043171468871</v>
+        <v>1.022227231914505</v>
       </c>
       <c r="L11">
-        <v>1.048760847679693</v>
+        <v>1.017128875447544</v>
       </c>
       <c r="M11">
-        <v>1.053190415493861</v>
+        <v>1.023508945539695</v>
       </c>
       <c r="N11">
-        <v>1.035686821455716</v>
+        <v>1.012449346446316</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027359729762154</v>
+        <v>0.9795357135236279</v>
       </c>
       <c r="D12">
-        <v>1.036685299655391</v>
+        <v>1.006475604023658</v>
       </c>
       <c r="E12">
-        <v>1.044994373273416</v>
+        <v>1.001108711962339</v>
       </c>
       <c r="F12">
-        <v>1.049441494559167</v>
+        <v>1.00758662206973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033944313359768</v>
+        <v>1.041813024445733</v>
       </c>
       <c r="J12">
-        <v>1.034069327879855</v>
+        <v>1.010232139906685</v>
       </c>
       <c r="K12">
-        <v>1.040294804661444</v>
+        <v>1.021479784433606</v>
       </c>
       <c r="L12">
-        <v>1.04857298093429</v>
+        <v>1.01621470158236</v>
       </c>
       <c r="M12">
-        <v>1.053003787769152</v>
+        <v>1.022569903574996</v>
       </c>
       <c r="N12">
-        <v>1.035537824934854</v>
+        <v>1.011666785420599</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027410430172615</v>
+        <v>0.9798120456507332</v>
       </c>
       <c r="D13">
-        <v>1.036724453559204</v>
+        <v>1.006683922293895</v>
       </c>
       <c r="E13">
-        <v>1.045044396974691</v>
+        <v>1.001353899982256</v>
       </c>
       <c r="F13">
-        <v>1.049491206840881</v>
+        <v>1.007836791227208</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033954310626814</v>
+        <v>1.041896210285588</v>
       </c>
       <c r="J13">
-        <v>1.034101246562952</v>
+        <v>1.010400222534399</v>
       </c>
       <c r="K13">
-        <v>1.040324179468541</v>
+        <v>1.02164057187076</v>
       </c>
       <c r="L13">
-        <v>1.048613275985283</v>
+        <v>1.016411260393492</v>
       </c>
       <c r="M13">
-        <v>1.053043820579318</v>
+        <v>1.022771840240756</v>
       </c>
       <c r="N13">
-        <v>1.035569788946142</v>
+        <v>1.011835106744924</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027576558475853</v>
+        <v>0.9807146899663125</v>
       </c>
       <c r="D14">
-        <v>1.03685273838903</v>
+        <v>1.007364508570598</v>
       </c>
       <c r="E14">
-        <v>1.045208334852914</v>
+        <v>1.002155216679729</v>
       </c>
       <c r="F14">
-        <v>1.049654110849518</v>
+        <v>1.00865426089173</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033987008956958</v>
+        <v>1.042167515507041</v>
       </c>
       <c r="J14">
-        <v>1.034205816165221</v>
+        <v>1.010949202201458</v>
       </c>
       <c r="K14">
-        <v>1.040420400883875</v>
+        <v>1.022165653181488</v>
       </c>
       <c r="L14">
-        <v>1.048745317203308</v>
+        <v>1.017053518572631</v>
       </c>
       <c r="M14">
-        <v>1.053174989028194</v>
+        <v>1.023431552650045</v>
       </c>
       <c r="N14">
-        <v>1.035674507049241</v>
+        <v>1.012384866026078</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027678919150696</v>
+        <v>0.9812687289020106</v>
       </c>
       <c r="D15">
-        <v>1.036931774412607</v>
+        <v>1.007782332071024</v>
       </c>
       <c r="E15">
-        <v>1.04530936648543</v>
+        <v>1.002647369487545</v>
       </c>
       <c r="F15">
-        <v>1.049754495162775</v>
+        <v>1.00915623807327</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034007110722993</v>
+        <v>1.042333716591023</v>
       </c>
       <c r="J15">
-        <v>1.034270233964751</v>
+        <v>1.011286112288761</v>
       </c>
       <c r="K15">
-        <v>1.040479665145758</v>
+        <v>1.022487841790675</v>
       </c>
       <c r="L15">
-        <v>1.048826680934169</v>
+        <v>1.017447881379868</v>
       </c>
       <c r="M15">
-        <v>1.053255804670045</v>
+        <v>1.023836542582664</v>
       </c>
       <c r="N15">
-        <v>1.035739016329435</v>
+        <v>1.01272225456435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028274756170571</v>
+        <v>0.9844619261753357</v>
       </c>
       <c r="D16">
-        <v>1.037391728679579</v>
+        <v>1.010191636842138</v>
       </c>
       <c r="E16">
-        <v>1.045897781278905</v>
+        <v>1.005488498904411</v>
       </c>
       <c r="F16">
-        <v>1.050338984720973</v>
+        <v>1.0120526217372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034123427881367</v>
+        <v>1.043286633197061</v>
       </c>
       <c r="J16">
-        <v>1.034645005111998</v>
+        <v>1.013227074557597</v>
       </c>
       <c r="K16">
-        <v>1.040824288523913</v>
+        <v>1.02434313988085</v>
       </c>
       <c r="L16">
-        <v>1.049300386307266</v>
+        <v>1.019722970245873</v>
       </c>
       <c r="M16">
-        <v>1.053726161907907</v>
+        <v>1.026171570794039</v>
       </c>
       <c r="N16">
-        <v>1.036114319694698</v>
+        <v>1.014665973222239</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028648555748163</v>
+        <v>0.9864378532855768</v>
       </c>
       <c r="D17">
-        <v>1.037680183579206</v>
+        <v>1.011683460566945</v>
       </c>
       <c r="E17">
-        <v>1.046267200644933</v>
+        <v>1.007250551857128</v>
       </c>
       <c r="F17">
-        <v>1.050705803109232</v>
+        <v>1.013847664201613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034195787803326</v>
+        <v>1.043871858257884</v>
       </c>
       <c r="J17">
-        <v>1.034879940309147</v>
+        <v>1.014427369452821</v>
       </c>
       <c r="K17">
-        <v>1.041040178863142</v>
+        <v>1.025489691268767</v>
       </c>
       <c r="L17">
-        <v>1.049597645770194</v>
+        <v>1.021132635836361</v>
       </c>
       <c r="M17">
-        <v>1.054021181964009</v>
+        <v>1.027617173308314</v>
       </c>
       <c r="N17">
-        <v>1.036349588526774</v>
+        <v>1.01586797267389</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028866603370556</v>
+        <v>0.9875808893695437</v>
       </c>
       <c r="D18">
-        <v>1.037848411606394</v>
+        <v>1.012546769946413</v>
       </c>
       <c r="E18">
-        <v>1.046482792492222</v>
+        <v>1.008271274818486</v>
       </c>
       <c r="F18">
-        <v>1.050919827830423</v>
+        <v>1.014887038219732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034237776701285</v>
+        <v>1.044208780293173</v>
       </c>
       <c r="J18">
-        <v>1.035016920147556</v>
+        <v>1.01512142753691</v>
       </c>
       <c r="K18">
-        <v>1.041166001831443</v>
+        <v>1.02615238811911</v>
       </c>
       <c r="L18">
-        <v>1.049771073888297</v>
+        <v>1.021948746476123</v>
       </c>
       <c r="M18">
-        <v>1.054193253691487</v>
+        <v>1.028453656268841</v>
       </c>
       <c r="N18">
-        <v>1.036486762892266</v>
+        <v>1.016563016400068</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02894095478087</v>
+        <v>0.9879690505666309</v>
       </c>
       <c r="D19">
-        <v>1.037905769105259</v>
+        <v>1.012839990582224</v>
       </c>
       <c r="E19">
-        <v>1.046556323343703</v>
+        <v>1.008618136705999</v>
       </c>
       <c r="F19">
-        <v>1.050992815847702</v>
+        <v>1.015240160340563</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034252056933679</v>
+        <v>1.044322917990236</v>
       </c>
       <c r="J19">
-        <v>1.03506361756898</v>
+        <v>1.015357070585502</v>
       </c>
       <c r="K19">
-        <v>1.041208886846701</v>
+        <v>1.026377334541227</v>
       </c>
       <c r="L19">
-        <v>1.049830215438209</v>
+        <v>1.022225995268369</v>
       </c>
       <c r="M19">
-        <v>1.054251924234163</v>
+        <v>1.028737752464371</v>
       </c>
       <c r="N19">
-        <v>1.036533526629385</v>
+        <v>1.016798994088818</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028608448864074</v>
+        <v>0.9862268424405357</v>
       </c>
       <c r="D20">
-        <v>1.03764923745138</v>
+        <v>1.011524113886281</v>
       </c>
       <c r="E20">
-        <v>1.046227553458838</v>
+        <v>1.007062234058737</v>
       </c>
       <c r="F20">
-        <v>1.050666440157095</v>
+        <v>1.01365586832254</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034188046752898</v>
+        <v>1.043809529112818</v>
       </c>
       <c r="J20">
-        <v>1.034854739554118</v>
+        <v>1.014299218674258</v>
       </c>
       <c r="K20">
-        <v>1.041017026438669</v>
+        <v>1.025367307832562</v>
       </c>
       <c r="L20">
-        <v>1.049565748322385</v>
+        <v>1.020982028982142</v>
       </c>
       <c r="M20">
-        <v>1.053989529973665</v>
+        <v>1.027462771906153</v>
       </c>
       <c r="N20">
-        <v>1.036324351983783</v>
+        <v>1.015739639906522</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027527637091727</v>
+        <v>0.9804493249106347</v>
       </c>
       <c r="D21">
-        <v>1.036814962638057</v>
+        <v>1.007164408083994</v>
       </c>
       <c r="E21">
-        <v>1.045160054212146</v>
+        <v>1.001919576052666</v>
       </c>
       <c r="F21">
-        <v>1.04960613680705</v>
+        <v>1.008413890349425</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033977389436019</v>
+        <v>1.042087823149038</v>
       </c>
       <c r="J21">
-        <v>1.034175025310464</v>
+        <v>1.010787820273965</v>
       </c>
       <c r="K21">
-        <v>1.040392070433422</v>
+        <v>1.022011308017584</v>
       </c>
       <c r="L21">
-        <v>1.048706432525095</v>
+        <v>1.016864672508742</v>
       </c>
       <c r="M21">
-        <v>1.053136363514223</v>
+        <v>1.023237593266696</v>
       </c>
       <c r="N21">
-        <v>1.035643672467938</v>
+        <v>1.012223254917737</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026848242087203</v>
+        <v>0.9767253329223754</v>
       </c>
       <c r="D22">
-        <v>1.036290223728967</v>
+        <v>1.00435787219193</v>
       </c>
       <c r="E22">
-        <v>1.044489926170466</v>
+        <v>0.9986183558752605</v>
       </c>
       <c r="F22">
-        <v>1.048940082586638</v>
+        <v>1.005044662182863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033842986247278</v>
+        <v>1.040963649713676</v>
       </c>
       <c r="J22">
-        <v>1.033747181793009</v>
+        <v>1.008522189149938</v>
       </c>
       <c r="K22">
-        <v>1.03999822128297</v>
+        <v>1.019843490306174</v>
       </c>
       <c r="L22">
-        <v>1.048166529068174</v>
+        <v>1.014217233184166</v>
       </c>
       <c r="M22">
-        <v>1.052599874576435</v>
+        <v>1.020516841398284</v>
       </c>
       <c r="N22">
-        <v>1.035215221363614</v>
+        <v>1.009954406337643</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027208387407251</v>
+        <v>0.9787084604234414</v>
       </c>
       <c r="D23">
-        <v>1.036568416036386</v>
+        <v>1.005852059661043</v>
       </c>
       <c r="E23">
-        <v>1.044845073702828</v>
+        <v>1.000375041063732</v>
       </c>
       <c r="F23">
-        <v>1.049293113209149</v>
+        <v>1.006837938897136</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033914420990646</v>
+        <v>1.041563634111815</v>
       </c>
       <c r="J23">
-        <v>1.033974034998489</v>
+        <v>1.009728898002573</v>
       </c>
       <c r="K23">
-        <v>1.040207094547773</v>
+        <v>1.020998324433743</v>
       </c>
       <c r="L23">
-        <v>1.048452705521222</v>
+        <v>1.015626432652168</v>
       </c>
       <c r="M23">
-        <v>1.052884283741753</v>
+        <v>1.021965439384976</v>
       </c>
       <c r="N23">
-        <v>1.035442396726667</v>
+        <v>1.01116282885526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028626571387131</v>
+        <v>0.9863222184192781</v>
       </c>
       <c r="D24">
-        <v>1.037663220745132</v>
+        <v>1.011596136910046</v>
       </c>
       <c r="E24">
-        <v>1.046245467957982</v>
+        <v>1.007147348516216</v>
       </c>
       <c r="F24">
-        <v>1.050684226377691</v>
+        <v>1.01374255619932</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0341915452722</v>
+        <v>1.04383770664158</v>
       </c>
       <c r="J24">
-        <v>1.034866126857093</v>
+        <v>1.014357143167496</v>
       </c>
       <c r="K24">
-        <v>1.041027488338577</v>
+        <v>1.02542262635636</v>
       </c>
       <c r="L24">
-        <v>1.049580161277251</v>
+        <v>1.021050100623345</v>
       </c>
       <c r="M24">
-        <v>1.054003832171919</v>
+        <v>1.02753255995838</v>
       </c>
       <c r="N24">
-        <v>1.036335755458034</v>
+        <v>1.015797646659184</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030272945909832</v>
+        <v>0.9947878593243451</v>
       </c>
       <c r="D25">
-        <v>1.038932780308824</v>
+        <v>1.017994859473251</v>
       </c>
       <c r="E25">
-        <v>1.047875085123583</v>
+        <v>1.014731415058702</v>
       </c>
       <c r="F25">
-        <v>1.052301111108274</v>
+        <v>1.021457067001503</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034504601350716</v>
+        <v>1.046303616325976</v>
       </c>
       <c r="J25">
-        <v>1.035899233060412</v>
+        <v>1.019491915054139</v>
       </c>
       <c r="K25">
-        <v>1.041975496593005</v>
+        <v>1.03032010624837</v>
       </c>
       <c r="L25">
-        <v>1.050890143204972</v>
+        <v>1.027105269356583</v>
       </c>
       <c r="M25">
-        <v>1.055302669362153</v>
+        <v>1.033731176948962</v>
       </c>
       <c r="N25">
-        <v>1.037370328790661</v>
+        <v>1.020939710510874</v>
       </c>
     </row>
   </sheetData>
